--- a/Software-Engineering/Stage 2/Gantt_Chart.xlsx
+++ b/Software-Engineering/Stage 2/Gantt_Chart.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView activeTab="0" windowHeight="12300" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,49 +97,93 @@
   <si>
     <t>Code Review</t>
   </si>
+  <si>
+    <t>Finalise Class and Sequence diagrams (Sam and Max)</t>
+  </si>
+  <si>
+    <t>Finish UML (Sam and Max)</t>
+  </si>
+  <si>
+    <t>Designing Test Plan (Bram and Latifah)</t>
+  </si>
+  <si>
+    <t>Create login and database (Sam and Max)</t>
+  </si>
+  <si>
+    <t>Test application (Bram and Max)</t>
+  </si>
+  <si>
+    <t>Create logout and finalise stage 3 functionality (Bram and Max)</t>
+  </si>
+  <si>
+    <t>Test and compile application (Whole group)</t>
+  </si>
+  <si>
+    <t>Review doccumentation</t>
+  </si>
+  <si>
+    <t>Review doccumentation, Test and compile application (Whole group)</t>
+  </si>
+  <si>
+    <t>Submit stage 3 (Whole group)</t>
+  </si>
+  <si>
+    <t>Stage 2</t>
+  </si>
+  <si>
+    <t>Stage 3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" count="1" mc:Ignorable="x14ac x16r2">
+  <numFmts count="37">
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="28"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF00B0F0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -158,7 +202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor rgb="FF2E75B5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,29 +233,39 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -244,7 +298,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -630,7 +684,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -941,9 +995,9 @@
       <c:valAx>
         <c:axId val="350251936"/>
         <c:scaling>
-          <c:orientation val="minMax"/>
           <c:max val="42788"/>
           <c:min val="42763"/>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2458,17 +2512,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BC42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A13" zoomScale="85" workbookViewId="0" tabSelected="1" zoomScaleNormal="85">
+      <selection pane="topLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
+    <sheetView topLeftCell="A1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="55" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2516,274 +2573,281 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-    </row>
     <row r="4" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>42764</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>42765</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D5" s="2">
         <v>42766</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E5" s="2">
         <v>42767</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F5" s="2">
         <v>42768</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G5" s="2">
         <v>42769</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H5" s="2">
         <v>42770</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I5" s="2">
         <v>42771</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J5" s="2">
         <v>42772</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K5" s="2">
         <v>42773</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L5" s="2">
         <v>42774</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M5" s="2">
         <v>42775</v>
       </c>
-      <c r="N4" s="2">
+      <c r="N5" s="2">
         <v>42776</v>
       </c>
-      <c r="O4" s="2">
+      <c r="O5" s="2">
         <v>42777</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P5" s="2">
         <v>42778</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q5" s="2">
         <v>42779</v>
       </c>
-      <c r="R4" s="2">
+      <c r="R5" s="2">
         <v>42780</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S5" s="2">
         <v>42781</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T5" s="2">
         <v>42782</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U5" s="2">
         <v>42783</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V5" s="2">
         <v>42784</v>
       </c>
-      <c r="W4" s="2">
+      <c r="W5" s="2">
         <v>42785</v>
       </c>
-      <c r="X4" s="2">
+      <c r="X5" s="2">
         <v>42786</v>
       </c>
-      <c r="Y4" s="2">
+      <c r="Y5" s="2">
         <v>42787</v>
       </c>
-      <c r="Z4" s="2">
+      <c r="Z5" s="2">
         <v>42788</v>
       </c>
-      <c r="AA4" s="2">
+      <c r="AA5" s="2">
         <v>42789</v>
       </c>
-      <c r="AB4" s="2">
+      <c r="AB5" s="2">
         <v>42790</v>
       </c>
-      <c r="AC4" s="2">
+      <c r="AC5" s="2">
         <v>42791</v>
       </c>
-      <c r="AD4" s="2">
+      <c r="AD5" s="2">
         <v>42792</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE5" s="2">
         <v>42793</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF5" s="2">
         <v>42794</v>
       </c>
-      <c r="AG4" s="2">
+      <c r="AG5" s="2">
         <v>42795</v>
       </c>
-      <c r="AH4" s="2">
+      <c r="AH5" s="2">
         <v>42796</v>
       </c>
-      <c r="AI4" s="2">
+      <c r="AI5" s="2">
         <v>42797</v>
       </c>
-      <c r="AJ4" s="2">
+      <c r="AJ5" s="2">
         <v>42798</v>
       </c>
-      <c r="AK4" s="2">
+      <c r="AK5" s="2">
         <v>42799</v>
       </c>
-      <c r="AL4" s="2">
+      <c r="AL5" s="2">
         <v>42800</v>
       </c>
-      <c r="AM4" s="2">
+      <c r="AM5" s="2">
         <v>42801</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN5" s="2">
         <v>42802</v>
       </c>
-      <c r="AO4" s="2">
+      <c r="AO5" s="2">
         <v>42803</v>
       </c>
-      <c r="AP4" s="2">
+      <c r="AP5" s="2">
         <v>42804</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ5" s="2">
         <v>42805</v>
       </c>
-      <c r="AR4" s="2">
+      <c r="AR5" s="2">
         <v>42806</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS5" s="2">
         <v>42807</v>
       </c>
-      <c r="AT4" s="2">
+      <c r="AT5" s="2">
         <v>42808</v>
       </c>
-      <c r="AU4" s="2">
+      <c r="AU5" s="2">
         <v>42809</v>
       </c>
-      <c r="AV4" s="2">
+      <c r="AV5" s="2">
         <v>42810</v>
       </c>
-      <c r="AW4" s="2">
+      <c r="AW5" s="2">
         <v>42811</v>
       </c>
-      <c r="AX4" s="2">
+      <c r="AX5" s="2">
         <v>42812</v>
       </c>
-      <c r="AY4" s="2">
+      <c r="AY5" s="2">
         <v>42813</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="AZ5" s="2">
         <v>42814</v>
       </c>
-      <c r="BA4" s="2">
+      <c r="BA5" s="2">
         <v>42815</v>
       </c>
-      <c r="BB4" s="2">
+      <c r="BB5" s="2">
         <v>42816</v>
       </c>
-      <c r="BC4" s="2">
+      <c r="BC5" s="2">
         <v>42817</v>
       </c>
-    </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="11"/>
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
     </row>
     <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
     <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
     </row>
     <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="W12" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="9"/>
     </row>
     <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" s="10"/>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>8</v>
       </c>
-      <c r="X13" s="11"/>
+      <c r="X14" s="11"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -2884,7 +2948,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -2968,8 +3032,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>3</v>
+      <c r="A34" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="B34" s="2">
         <v>42772</v>
@@ -2982,8 +3046,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>20</v>
+      <c r="A35" s="0" t="s">
+        <v>25</v>
       </c>
       <c r="B35" s="2">
         <v>42773</v>
@@ -2996,8 +3060,8 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>21</v>
+      <c r="A36" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="B36" s="2">
         <v>42775</v>
@@ -3010,8 +3074,8 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>22</v>
+      <c r="A37" s="0" t="s">
+        <v>27</v>
       </c>
       <c r="B37" s="2">
         <v>42777</v>
@@ -3024,8 +3088,8 @@
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>10</v>
+      <c r="A38" s="0" t="s">
+        <v>28</v>
       </c>
       <c r="B38" s="2">
         <v>42778</v>
@@ -3038,8 +3102,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>6</v>
+      <c r="A39" s="0" t="s">
+        <v>29</v>
       </c>
       <c r="B39" s="2">
         <v>42783</v>
@@ -3052,8 +3116,8 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>7</v>
+      <c r="A40" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="B40" s="2">
         <v>42785</v>
@@ -3066,30 +3130,16 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>23</v>
+      <c r="A41" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="B41" s="2">
-        <v>42785</v>
+        <v>42786</v>
       </c>
       <c r="C41" s="12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D41" s="2">
-        <v>42786</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B42" s="2">
-        <v>42786</v>
-      </c>
-      <c r="C42" s="12">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
         <v>42786</v>
       </c>
     </row>
